--- a/mysql/bss.xlsx
+++ b/mysql/bss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panliu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panliu/personal/seal-spider-demo/mysql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C645536-833D-6A49-AB95-B31858ECE309}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EF959D-AA12-C94B-90A4-E5C225922385}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{D22DD8D6-EBED-9B42-9CF1-2273DABFF5DD}"/>
+    <workbookView xWindow="12940" yWindow="920" windowWidth="28240" windowHeight="17440" xr2:uid="{D22DD8D6-EBED-9B42-9CF1-2273DABFF5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,15 +122,9 @@
     <t>政法委</t>
   </si>
   <si>
-    <t>机关工委</t>
-  </si>
-  <si>
     <t>巡察办</t>
   </si>
   <si>
-    <t>市政办</t>
-  </si>
-  <si>
     <t>发改委</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>文化局</t>
   </si>
   <si>
-    <t>编译局</t>
-  </si>
-  <si>
     <t>藏医院</t>
   </si>
   <si>
@@ -271,18 +262,6 @@
     <t>通信监管办</t>
   </si>
   <si>
-    <t>国税局</t>
-  </si>
-  <si>
-    <t>人行</t>
-  </si>
-  <si>
-    <t>民航站</t>
-  </si>
-  <si>
-    <t>调查队</t>
-  </si>
-  <si>
     <t>水文分局</t>
   </si>
   <si>
@@ -295,9 +274,6 @@
     <t>气象局</t>
   </si>
   <si>
-    <t>市人大办</t>
-  </si>
-  <si>
     <t>工会</t>
   </si>
   <si>
@@ -319,9 +295,6 @@
     <t>党校</t>
   </si>
   <si>
-    <t>检察院</t>
-  </si>
-  <si>
     <t>市政协办</t>
   </si>
   <si>
@@ -559,6 +532,168 @@
   </si>
   <si>
     <t>05-10</t>
+  </si>
+  <si>
+    <t>昌都报社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一高级中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四高级中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊教育学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-11</t>
+  </si>
+  <si>
+    <t>04-12</t>
+  </si>
+  <si>
+    <t>04-13</t>
+  </si>
+  <si>
+    <t>04-14</t>
+  </si>
+  <si>
+    <t>04-15</t>
+  </si>
+  <si>
+    <t>04-16</t>
+  </si>
+  <si>
+    <t>04-17</t>
+  </si>
+  <si>
+    <t>04-18</t>
+  </si>
+  <si>
+    <t>04-19</t>
+  </si>
+  <si>
+    <t>04-20</t>
+  </si>
+  <si>
+    <t>直属机关工委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民政府办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新区开发建设管理委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏语委办公室（编译局）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌都市投资有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二中等职业技术学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家税务总局昌都市税务局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民银行昌都市中心支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国民用航空昌都站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家统计局昌都调查队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专用通信局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市人大常委办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民检察院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防支队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反恐支队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武警支队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-36</t>
+  </si>
+  <si>
+    <t>05-11</t>
+  </si>
+  <si>
+    <t>05-12</t>
+  </si>
+  <si>
+    <t>05-13</t>
+  </si>
+  <si>
+    <t>05-14</t>
+  </si>
+  <si>
+    <t>03-11</t>
+  </si>
+  <si>
+    <t>03-12</t>
+  </si>
+  <si>
+    <t>04-21</t>
   </si>
 </sst>
 </file>
@@ -961,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C4438B-00B9-2D4E-99B2-486A340ED0E6}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1101,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1121,7 +1256,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -1141,7 +1276,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -1161,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
@@ -1181,7 +1316,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5">
         <v>5</v>
@@ -1201,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D12" s="5">
         <v>6</v>
@@ -1221,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5">
         <v>7</v>
@@ -1241,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
@@ -1261,7 +1396,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D15" s="5">
         <v>9</v>
@@ -1281,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D16" s="5">
         <v>10</v>
@@ -1298,10 +1433,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D17" s="5">
         <v>11</v>
@@ -1318,10 +1453,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5">
         <v>12</v>
@@ -1338,10 +1473,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1358,10 +1493,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D20" s="5">
         <v>2</v>
@@ -1378,10 +1513,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -1398,10 +1533,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D22" s="5">
         <v>4</v>
@@ -1418,10 +1553,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
@@ -1438,10 +1573,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D24" s="5">
         <v>6</v>
@@ -1458,10 +1593,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D25" s="5">
         <v>7</v>
@@ -1478,10 +1613,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D26" s="5">
         <v>8</v>
@@ -1498,10 +1633,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D27" s="5">
         <v>9</v>
@@ -1518,10 +1653,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D28" s="5">
         <v>10</v>
@@ -1538,10 +1673,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D29" s="5">
         <v>11</v>
@@ -1558,10 +1693,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D30" s="5">
         <v>12</v>
@@ -1578,10 +1713,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D31" s="5">
         <v>13</v>
@@ -1598,10 +1733,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D32" s="5">
         <v>14</v>
@@ -1618,10 +1753,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D33" s="5">
         <v>15</v>
@@ -1638,10 +1773,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D34" s="5">
         <v>16</v>
@@ -1658,10 +1793,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5">
         <v>17</v>
@@ -1678,10 +1813,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D36" s="5">
         <v>18</v>
@@ -1698,10 +1833,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D37" s="5">
         <v>19</v>
@@ -1718,10 +1853,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D38" s="5">
         <v>20</v>
@@ -1738,10 +1873,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D39" s="5">
         <v>21</v>
@@ -1758,10 +1893,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D40" s="5">
         <v>22</v>
@@ -1778,10 +1913,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D41" s="5">
         <v>23</v>
@@ -1798,10 +1933,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5">
         <v>24</v>
@@ -1818,10 +1953,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D43" s="5">
         <v>25</v>
@@ -1838,10 +1973,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D44" s="5">
         <v>26</v>
@@ -1858,10 +1993,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D45" s="5">
         <v>27</v>
@@ -1878,10 +2013,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D46" s="5">
         <v>28</v>
@@ -1898,10 +2033,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D47" s="5">
         <v>29</v>
@@ -1918,10 +2053,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D48" s="5">
         <v>30</v>
@@ -1938,10 +2073,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D49" s="5">
         <v>31</v>
@@ -1958,10 +2093,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D50" s="5">
         <v>32</v>
@@ -1978,10 +2113,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D51" s="5">
         <v>33</v>
@@ -1998,10 +2133,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D52" s="5">
         <v>34</v>
@@ -2018,10 +2153,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D53" s="5">
         <v>35</v>
@@ -2034,39 +2169,39 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="2">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>3</v>
+      <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="5">
+        <v>36</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="5">
-        <v>2</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="B55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" s="6">
@@ -2078,13 +2213,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D56" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="5">
         <v>1</v>
@@ -2098,13 +2233,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D57" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -2118,13 +2253,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D58" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="5">
         <v>1</v>
@@ -2138,13 +2273,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D59" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -2158,13 +2293,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D60" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
@@ -2178,13 +2313,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D61" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="5">
         <v>1</v>
@@ -2198,13 +2333,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D62" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -2218,13 +2353,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D63" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -2237,20 +2372,20 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="7">
-        <v>4</v>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="5">
+        <v>10</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2258,19 +2393,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="D65" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
       </c>
-      <c r="F65" s="7">
-        <v>4</v>
+      <c r="F65" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2278,35 +2413,35 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="D66" s="5">
+        <v>12</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
         <v>3</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7">
-        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="5">
-        <v>4</v>
-      </c>
-      <c r="E67" s="5">
+      <c r="B67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="7">
@@ -2318,13 +2453,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D68" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E68" s="5">
         <v>1</v>
@@ -2338,13 +2473,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D69" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -2358,13 +2493,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D70" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -2378,13 +2513,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D71" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -2398,13 +2533,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D72" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -2418,13 +2553,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D73" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -2437,20 +2572,20 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="6">
-        <v>5</v>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="5">
+        <v>8</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2458,19 +2593,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D75" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
-      <c r="F75" s="6">
-        <v>5</v>
+      <c r="F75" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2478,19 +2613,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D76" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
       </c>
-      <c r="F76" s="6">
-        <v>5</v>
+      <c r="F76" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2498,19 +2633,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D77" s="5">
+        <v>11</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7">
         <v>4</v>
-      </c>
-      <c r="E77" s="5">
-        <v>1</v>
-      </c>
-      <c r="F77" s="6">
-        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2518,19 +2653,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D78" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
       </c>
-      <c r="F78" s="6">
-        <v>5</v>
+      <c r="F78" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2538,19 +2673,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D79" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
-      <c r="F79" s="6">
-        <v>5</v>
+      <c r="F79" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2558,19 +2693,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D80" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E80" s="5">
         <v>1</v>
       </c>
-      <c r="F80" s="6">
-        <v>5</v>
+      <c r="F80" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2578,19 +2713,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D81" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E81" s="5">
         <v>1</v>
       </c>
-      <c r="F81" s="6">
-        <v>5</v>
+      <c r="F81" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2598,19 +2733,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D82" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E82" s="5">
         <v>1</v>
       </c>
-      <c r="F82" s="6">
-        <v>5</v>
+      <c r="F82" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2618,18 +2753,378 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="5">
+        <v>17</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="5">
+        <v>18</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="5">
+        <v>19</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="5">
+        <v>20</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="5">
+        <v>21</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="5">
+        <v>2</v>
+      </c>
+      <c r="E89" s="5">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="5">
+        <v>3</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="5">
+        <v>4</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="5">
+        <v>5</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="5">
+      <c r="B93" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" s="5">
+        <v>6</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="5">
+        <v>7</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="5">
+        <v>8</v>
+      </c>
+      <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96" s="5">
+        <v>9</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1</v>
+      </c>
+      <c r="F96" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="5">
         <v>10</v>
       </c>
-      <c r="E83" s="5">
-        <v>1</v>
-      </c>
-      <c r="F83" s="6">
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="5">
+        <v>11</v>
+      </c>
+      <c r="E98" s="5">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="5">
+        <v>12</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="5">
+        <v>13</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="5">
+        <v>14</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
         <v>5</v>
       </c>
     </row>
